--- a/物料清单/BOM表.xlsx
+++ b/物料清单/BOM表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\校赛\物料清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E989E8C-40C9-4005-A0D5-BD66A9447DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE0681B-C950-4296-BE1C-C959F921BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,39 @@
   <si>
     <t>2,39</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买2.5cm宽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21cm,公对公，公对母，母对母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易坏，多买几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单层底板就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【淘宝】http://e.tb.cn/h.TYSNXkoXd886FUk?tk=9G0h3IRGZr0 CA6496 「新款 寻迹模块 避障模块 寻迹传感器 TCRT5000红外反射传感器」</t>
+  </si>
+  <si>
+    <t>点击链接直接打开 或者 淘宝搜索直接打开</t>
+  </si>
+  <si>
+    <t>。【淘宝】限时满70减3 http://e.tb.cn/h.TYSNw7TYV6mCplW?tk=L9Qk3IRFLY9 MF3543 「电赛智能小车套件麦克纳姆轮底板四轮机器人2四驱亚克力板底盘4wd」</t>
   </si>
 </sst>
 </file>
@@ -440,18 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +502,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -496,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -510,7 +548,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -523,8 +561,11 @@
       <c r="D5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -538,7 +579,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -552,7 +593,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -566,7 +607,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -580,7 +621,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -593,8 +634,11 @@
       <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -608,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -622,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -635,8 +679,14 @@
       <c r="D13">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -649,8 +699,14 @@
       <c r="D14">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -662,6 +718,17 @@
       </c>
       <c r="D15">
         <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
